--- a/dev/Assumptions and data for buses.xlsx
+++ b/dev/Assumptions and data for buses.xlsx
@@ -17,15 +17,17 @@
     <sheet name="Battery electric buses" sheetId="15" r:id="rId3"/>
     <sheet name="PHEV-buses" sheetId="16" r:id="rId4"/>
     <sheet name="weight composition" sheetId="7" r:id="rId5"/>
-    <sheet name="Passenger" sheetId="13" r:id="rId6"/>
-    <sheet name="Engines mass" sheetId="9" r:id="rId7"/>
-    <sheet name="ICEV engines" sheetId="4" r:id="rId8"/>
-    <sheet name="BEV motors" sheetId="3" r:id="rId9"/>
-    <sheet name="BEV chargers" sheetId="2" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId6"/>
+    <sheet name="HVAC mass" sheetId="17" r:id="rId7"/>
+    <sheet name="Passenger" sheetId="13" r:id="rId8"/>
+    <sheet name="Engines mass" sheetId="9" r:id="rId9"/>
+    <sheet name="ICEV engines" sheetId="4" r:id="rId10"/>
+    <sheet name="BEV motors" sheetId="3" r:id="rId11"/>
+    <sheet name="BEV chargers" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Battery electric buses'!$A$1:$Z$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Diesel buses'!$A$1:$Q$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Diesel buses'!$A$1:$R$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="265">
   <si>
     <t>kW</t>
   </si>
@@ -768,6 +770,78 @@
   </si>
   <si>
     <t>rigid, 3 axles</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>https://www.mcc-hvac.com/wp-content/uploads/2014/11/MCC-Catalog-Nov-2014-Web.pdf</t>
+  </si>
+  <si>
+    <t>Mass [kg]</t>
+  </si>
+  <si>
+    <t>Eco 136 - V24</t>
+  </si>
+  <si>
+    <t>Eco 136 - V28</t>
+  </si>
+  <si>
+    <t>Eco 136 - V32</t>
+  </si>
+  <si>
+    <t>Fuel tank cap. [kg]</t>
+  </si>
+  <si>
+    <t>ICEV-d</t>
+  </si>
+  <si>
+    <t>ICEV-g</t>
+  </si>
+  <si>
+    <t>TEV</t>
+  </si>
+  <si>
+    <t>9m (midibus)</t>
+  </si>
+  <si>
+    <t>13m, single deck, city</t>
+  </si>
+  <si>
+    <t>13m, single deck, coach</t>
+  </si>
+  <si>
+    <t>13m, double deck, city</t>
+  </si>
+  <si>
+    <t>13m, double deck, coach</t>
+  </si>
+  <si>
+    <t>13m, articulated, city</t>
+  </si>
+  <si>
+    <t>size/powertrain/years</t>
+  </si>
+  <si>
+    <t>not avail.</t>
+  </si>
+  <si>
+    <t>HEV-d^</t>
+  </si>
+  <si>
+    <t>PHEV-d^</t>
+  </si>
+  <si>
+    <t>FCEV^</t>
+  </si>
+  <si>
+    <t>BEV-plugin^</t>
+  </si>
+  <si>
+    <t>BEV-opp^</t>
+  </si>
+  <si>
+    <t>BEV-motion^</t>
   </si>
 </sst>
 </file>
@@ -776,8 +850,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -867,9 +941,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -893,6 +967,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -1328,6 +1406,393 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HVAC mass'!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mass [kg]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HVAC mass'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HVAC mass'!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67D5-4594-8F08-B066B5EF7EFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="964846992"/>
+        <c:axId val="964849944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="964846992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964849944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="964849944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964846992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1941,7 +2406,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2059,7 +2523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2140,7 +2603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2217,7 +2679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2257,7 +2719,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2343,7 +2804,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2565,7 +3025,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2683,505 +3142,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1478449695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Natural gas engines</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ICEV engines'!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'ICEV engines'!$B$11:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'ICEV engines'!$B$12:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1240</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6014-4460-A5BA-47F000CBC91D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1478449695"/>
-        <c:axId val="1471918991"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1478449695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>kW</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1471918991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1471918991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>kg</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3331,13 +3291,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Electric engines</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Natural gas engines</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3376,6 +3335,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ICEV engines'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3412,7 +3382,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3445,48 +3414,42 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'BEV motors'!$B$7:$F$7</c:f>
+              <c:f>'ICEV engines'!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BEV motors'!$B$8:$F$8</c:f>
+              <c:f>'ICEV engines'!$B$12:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.299999999999997</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A99B-48FF-B0A2-CB2475343A9B}"/>
+              <c16:uniqueId val="{00000002-6014-4460-A5BA-47F000CBC91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3556,7 +3519,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3674,7 +3636,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3804,6 +3765,495 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Electric engines</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'BEV motors'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'BEV motors'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A99B-48FF-B0A2-CB2475343A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1478449695"/>
+        <c:axId val="1471918991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1478449695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471918991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1471918991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>kg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1478449695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -3849,7 +4299,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4337,6 +4786,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6918,6 +7407,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7478,6 +8483,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>130175</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -7515,7 +8555,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7596,7 +8636,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7639,7 +8679,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7979,11 +9019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J65" activeCellId="2" sqref="J58:J62 J64 J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7998,12 +9037,13 @@
     <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8046,17 +9086,20 @@
       <c r="N1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -8096,14 +9139,18 @@
       <c r="N2">
         <v>260</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
+        <f>N2*0.85</f>
+        <v>221</v>
+      </c>
+      <c r="P2">
         <v>32</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -8140,8 +9187,12 @@
       <c r="N3">
         <v>480</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O66" si="0">N3*0.85</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8181,8 +9232,12 @@
       <c r="N4">
         <v>250</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -8216,8 +9271,9 @@
       <c r="L5">
         <v>20000</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -8252,7 +9308,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -8290,7 +9346,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -8330,8 +9386,12 @@
       <c r="N8">
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -8369,7 +9429,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -8412,8 +9472,12 @@
       <c r="N10">
         <v>350</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -8456,8 +9520,12 @@
       <c r="N11">
         <v>480</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -8494,8 +9562,9 @@
       <c r="L12">
         <v>26000</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -8535,8 +9604,12 @@
       <c r="N13">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -8573,8 +9646,12 @@
       <c r="N14">
         <v>490</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>416.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -8614,8 +9691,12 @@
       <c r="N15">
         <v>250</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -8656,13 +9737,17 @@
       <c r="N16" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P16" s="3"/>
-      <c r="Q16" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -8705,13 +9790,17 @@
       <c r="N17" s="3">
         <v>364.70588235294116</v>
       </c>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
       <c r="P17" s="3"/>
-      <c r="Q17" t="s">
+      <c r="Q17" s="3"/>
+      <c r="R17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -8752,13 +9841,17 @@
       <c r="N18" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O18" s="3"/>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P18" s="3"/>
-      <c r="Q18" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -8801,13 +9894,17 @@
       <c r="N19" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P19" s="3"/>
-      <c r="Q19" t="s">
+      <c r="Q19" s="3"/>
+      <c r="R19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -8850,13 +9947,17 @@
       <c r="N20" s="3">
         <v>364.70588235294116</v>
       </c>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
       <c r="P20" s="3"/>
-      <c r="Q20" t="s">
+      <c r="Q20" s="3"/>
+      <c r="R20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -8892,13 +9993,17 @@
       <c r="N21" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P21" s="3"/>
-      <c r="Q21" t="s">
+      <c r="Q21" s="3"/>
+      <c r="R21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -8925,13 +10030,17 @@
       <c r="N22" s="3">
         <v>364.70588235294116</v>
       </c>
-      <c r="O22" s="3"/>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
       <c r="P22" s="3"/>
-      <c r="Q22" t="s">
+      <c r="Q22" s="3"/>
+      <c r="R22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -8958,13 +10067,17 @@
       <c r="N23" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O23" s="3"/>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P23" s="3"/>
-      <c r="Q23" t="s">
+      <c r="Q23" s="3"/>
+      <c r="R23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -8997,13 +10110,17 @@
       <c r="N24" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O24" s="3"/>
+      <c r="O24" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P24" s="3"/>
-      <c r="Q24" t="s">
+      <c r="Q24" s="3"/>
+      <c r="R24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -9046,13 +10163,17 @@
       <c r="N25" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P25" s="3"/>
-      <c r="Q25" t="s">
+      <c r="Q25" s="3"/>
+      <c r="R25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -9093,13 +10214,17 @@
       <c r="N26" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O26" s="3"/>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P26" s="3"/>
-      <c r="Q26" t="s">
+      <c r="Q26" s="3"/>
+      <c r="R26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -9132,13 +10257,17 @@
       <c r="N27" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O27" s="3"/>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P27" s="3"/>
-      <c r="Q27" t="s">
+      <c r="Q27" s="3"/>
+      <c r="R27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -9170,13 +10299,17 @@
       <c r="N28" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O28" s="3"/>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P28" s="3"/>
-      <c r="Q28" t="s">
+      <c r="Q28" s="3"/>
+      <c r="R28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -9216,13 +10349,17 @@
       <c r="N29">
         <v>480</v>
       </c>
-      <c r="O29" s="3"/>
+      <c r="O29" s="3">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
       <c r="P29" s="3"/>
-      <c r="Q29" t="s">
+      <c r="Q29" s="3"/>
+      <c r="R29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -9262,13 +10399,17 @@
       <c r="N30" s="3">
         <v>445</v>
       </c>
-      <c r="O30" s="3"/>
+      <c r="O30" s="3">
+        <f t="shared" si="0"/>
+        <v>378.25</v>
+      </c>
       <c r="P30" s="3"/>
-      <c r="Q30" t="s">
+      <c r="Q30" s="3"/>
+      <c r="R30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -9296,13 +10437,17 @@
       <c r="N31" s="3">
         <v>550</v>
       </c>
-      <c r="O31" s="3"/>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>467.5</v>
+      </c>
       <c r="P31" s="3"/>
-      <c r="Q31" t="s">
+      <c r="Q31" s="3"/>
+      <c r="R31" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -9345,13 +10490,17 @@
       <c r="N32" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O32" s="3"/>
+      <c r="O32" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P32" s="3"/>
-      <c r="Q32" t="s">
+      <c r="Q32" s="3"/>
+      <c r="R32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -9382,13 +10531,17 @@
       <c r="N33" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O33" s="3"/>
+      <c r="O33" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P33" s="3"/>
-      <c r="Q33" t="s">
+      <c r="Q33" s="3"/>
+      <c r="R33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -9413,13 +10566,17 @@
       <c r="N34" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P34" s="3"/>
-      <c r="Q34" t="s">
+      <c r="Q34" s="3"/>
+      <c r="R34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -9444,13 +10601,17 @@
       <c r="N35" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O35" s="3"/>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P35" s="3"/>
-      <c r="Q35" t="s">
+      <c r="Q35" s="3"/>
+      <c r="R35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -9490,13 +10651,17 @@
       <c r="N36" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O36" s="3"/>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P36" s="3"/>
-      <c r="Q36" t="s">
+      <c r="Q36" s="3"/>
+      <c r="R36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -9530,13 +10695,17 @@
       <c r="N37" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O37" s="3"/>
+      <c r="O37" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P37" s="3"/>
-      <c r="Q37" t="s">
+      <c r="Q37" s="3"/>
+      <c r="R37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -9576,13 +10745,17 @@
       <c r="N38" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O38" s="3"/>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P38" s="3"/>
-      <c r="Q38" t="s">
+      <c r="Q38" s="3"/>
+      <c r="R38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -9616,13 +10789,17 @@
       <c r="N39" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O39" s="3"/>
+      <c r="O39" s="3">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P39" s="3"/>
-      <c r="Q39" t="s">
+      <c r="Q39" s="3"/>
+      <c r="R39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -9659,11 +10836,15 @@
       <c r="N40">
         <v>270</v>
       </c>
-      <c r="R40" t="s">
+      <c r="O40" s="3">
+        <f t="shared" si="0"/>
+        <v>229.5</v>
+      </c>
+      <c r="S40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -9700,11 +10881,15 @@
       <c r="N41">
         <v>270</v>
       </c>
-      <c r="R41" t="s">
+      <c r="O41" s="3">
+        <f t="shared" si="0"/>
+        <v>229.5</v>
+      </c>
+      <c r="S41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9741,11 +10926,15 @@
       <c r="N42">
         <v>270</v>
       </c>
-      <c r="R42" t="s">
+      <c r="O42" s="3">
+        <f t="shared" si="0"/>
+        <v>229.5</v>
+      </c>
+      <c r="S42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -9782,11 +10971,15 @@
       <c r="N43">
         <v>270</v>
       </c>
-      <c r="R43" t="s">
+      <c r="O43" s="3">
+        <f t="shared" si="0"/>
+        <v>229.5</v>
+      </c>
+      <c r="S43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -9823,13 +11016,17 @@
       <c r="N44" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O44" s="3"/>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P44" s="3"/>
-      <c r="Q44" t="s">
+      <c r="Q44" s="3"/>
+      <c r="R44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -9851,13 +11048,17 @@
       <c r="N45" s="3">
         <v>305.88235294117646</v>
       </c>
-      <c r="O45" s="3"/>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
       <c r="P45" s="3"/>
-      <c r="Q45" t="s">
+      <c r="Q45" s="3"/>
+      <c r="R45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -9879,13 +11080,17 @@
       <c r="N46" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O46" s="3"/>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P46" s="3"/>
-      <c r="Q46" t="s">
+      <c r="Q46" s="3"/>
+      <c r="R46" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -9907,13 +11112,17 @@
       <c r="N47" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O47" s="3"/>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P47" s="3"/>
-      <c r="Q47" t="s">
+      <c r="Q47" s="3"/>
+      <c r="R47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -9953,13 +11162,17 @@
       <c r="N48" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O48" s="3"/>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P48" s="3"/>
-      <c r="Q48" t="s">
+      <c r="Q48" s="3"/>
+      <c r="R48" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -9999,13 +11212,17 @@
       <c r="N49">
         <v>480</v>
       </c>
-      <c r="O49" s="3"/>
+      <c r="O49" s="3">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
       <c r="P49" s="3"/>
-      <c r="Q49" t="s">
+      <c r="Q49" s="3"/>
+      <c r="R49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -10027,13 +11244,17 @@
       <c r="N50" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O50" s="3"/>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P50" s="3"/>
-      <c r="Q50" t="s">
+      <c r="Q50" s="3"/>
+      <c r="R50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -10067,13 +11288,17 @@
       <c r="N51" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O51" s="3"/>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P51" s="3"/>
-      <c r="Q51" t="s">
+      <c r="Q51" s="3"/>
+      <c r="R51" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -10095,13 +11320,17 @@
       <c r="N52" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O52" s="3"/>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P52" s="3"/>
-      <c r="Q52" t="s">
+      <c r="Q52" s="3"/>
+      <c r="R52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -10135,13 +11364,17 @@
       <c r="N53" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O53" s="3"/>
+      <c r="O53" s="3">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P53" s="3"/>
-      <c r="Q53" t="s">
+      <c r="Q53" s="3"/>
+      <c r="R53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -10175,13 +11408,17 @@
       <c r="N54" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O54" s="3"/>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P54" s="3"/>
-      <c r="Q54" t="s">
+      <c r="Q54" s="3"/>
+      <c r="R54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -10221,13 +11458,17 @@
       <c r="N55" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O55" s="3"/>
+      <c r="O55" s="3">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P55" s="3"/>
-      <c r="Q55" t="s">
+      <c r="Q55" s="3"/>
+      <c r="R55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -10261,13 +11502,17 @@
       <c r="N56" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O56" s="3"/>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P56" s="3"/>
-      <c r="Q56" t="s">
+      <c r="Q56" s="3"/>
+      <c r="R56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -10301,13 +11546,17 @@
       <c r="N57" s="3">
         <v>482.35294117647061</v>
       </c>
-      <c r="O57" s="3"/>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
       <c r="P57" s="3"/>
-      <c r="Q57" t="s">
+      <c r="Q57" s="3"/>
+      <c r="R57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -10341,8 +11590,9 @@
       <c r="M58">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O58"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -10376,8 +11626,9 @@
       <c r="M59">
         <v>110</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -10411,8 +11662,9 @@
       <c r="M60">
         <v>162</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O60"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -10446,8 +11698,9 @@
       <c r="M61">
         <v>165</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -10478,8 +11731,9 @@
       <c r="J62">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -10519,8 +11773,12 @@
       <c r="N63">
         <v>200</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -10560,8 +11818,12 @@
       <c r="N64">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -10601,8 +11863,12 @@
       <c r="N65">
         <v>200</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -10642,8 +11908,12 @@
       <c r="N66">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -10683,8 +11953,12 @@
       <c r="N67">
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <f t="shared" ref="O67:O68" si="1">N67*0.85</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -10724,32 +11998,368 @@
       <c r="N68">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H73" s="12">
-        <f>(4000*(2550-300)/1000000)</f>
-        <v>9</v>
-      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H73" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q68">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Single deck"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R68"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.74570000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>350</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>224</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6">
+        <v>350</v>
+      </c>
+      <c r="H6">
+        <v>380</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>210</v>
+      </c>
+      <c r="K6">
+        <v>240</v>
+      </c>
+      <c r="L6">
+        <v>103</v>
+      </c>
+      <c r="M6">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>135</v>
+      </c>
+      <c r="O6">
+        <v>162</v>
+      </c>
+      <c r="P6">
+        <v>228</v>
+      </c>
+      <c r="Q6">
+        <v>134</v>
+      </c>
+      <c r="R6">
+        <v>228</v>
+      </c>
+      <c r="S6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1343</v>
+      </c>
+      <c r="C7">
+        <v>1343</v>
+      </c>
+      <c r="D7">
+        <v>929</v>
+      </c>
+      <c r="E7">
+        <v>380</v>
+      </c>
+      <c r="F7">
+        <v>521</v>
+      </c>
+      <c r="G7">
+        <v>770</v>
+      </c>
+      <c r="H7">
+        <v>997</v>
+      </c>
+      <c r="I7">
+        <v>522</v>
+      </c>
+      <c r="J7">
+        <v>737</v>
+      </c>
+      <c r="K7">
+        <v>867</v>
+      </c>
+      <c r="L7">
+        <v>390</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
+        <v>510</v>
+      </c>
+      <c r="O7">
+        <v>529</v>
+      </c>
+      <c r="P7">
+        <v>680</v>
+      </c>
+      <c r="Q7">
+        <v>390</v>
+      </c>
+      <c r="R7">
+        <v>900</v>
+      </c>
+      <c r="S7">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>147</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <v>294</v>
+      </c>
+      <c r="E11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>520</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>870</v>
+      </c>
+      <c r="E12">
+        <v>1240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
@@ -11018,15 +12628,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
     <col min="23" max="23" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="21.5546875" customWidth="1"/>
   </cols>
@@ -11111,7 +12722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -11173,7 +12784,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -11235,7 +12846,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -11288,7 +12899,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -11344,7 +12955,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -11400,7 +13011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -11450,7 +13061,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -11503,7 +13114,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -11621,7 +13232,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -11674,7 +13285,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -11727,7 +13338,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -11789,7 +13400,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -11845,7 +13456,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -11901,7 +13512,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -11950,11 +13561,11 @@
       <c r="V16" t="s">
         <v>189</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -12007,7 +13618,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -12069,7 +13680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -12125,7 +13736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -12237,7 +13848,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -12293,7 +13904,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>199</v>
       </c>
@@ -12346,7 +13957,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -12399,7 +14010,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>199</v>
       </c>
@@ -12933,10 +14544,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z34"/>
+  <autoFilter ref="A1:Z34">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Overhead"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1"/>
     <hyperlink ref="Z3" r:id="rId2"/>
+    <hyperlink ref="Z16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12947,7 +14565,7 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13141,8 +14759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13300,7 +14918,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" ref="H8:I18" si="0">K8*$H$20/$K$20</f>
+        <f t="shared" ref="H8:H18" si="0">K8*$H$20/$K$20</f>
         <v>116.23616236162361</v>
       </c>
       <c r="I8" s="10">
@@ -13339,7 +14957,7 @@
         <v>95.9409594095941</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" ref="J9:J19" si="2">K9*$J$20/$K$20</f>
+        <f t="shared" ref="J9:J18" si="2">K9*$J$20/$K$20</f>
         <v>74.391143911439116</v>
       </c>
       <c r="K9" s="7">
@@ -13676,7 +15294,7 @@
         <v>2300</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="F20:L20" si="5">SUM(G7:G19)</f>
+        <f t="shared" ref="G20" si="5">SUM(G7:G19)</f>
         <v>8050</v>
       </c>
       <c r="H20" s="7">
@@ -13704,7 +15322,7 @@
         <v>2700</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" ref="F21:L21" si="6">G6-G20</f>
+        <f t="shared" ref="G21" si="6">G6-G20</f>
         <v>3950</v>
       </c>
       <c r="H21" s="10"/>
@@ -13730,32 +15348,32 @@
         <v>31</v>
       </c>
       <c r="F23" s="10">
-        <f>SUM(F12:F19)</f>
-        <v>1601</v>
+        <f>SUM(F13,F19)</f>
+        <v>560</v>
       </c>
       <c r="G23" s="10">
-        <f>SUM(G12:G19)</f>
-        <v>7010</v>
+        <f t="shared" ref="G23:L23" si="7">SUM(G13,G19)</f>
+        <v>5449</v>
       </c>
       <c r="H23" s="10">
-        <f>SUM(H12:H19)</f>
-        <v>9643.4501845018458</v>
+        <f t="shared" si="7"/>
+        <v>7121.9557195571961</v>
       </c>
       <c r="I23" s="10">
-        <f>SUM(I12:I19)</f>
-        <v>14152.80073800738</v>
+        <f t="shared" si="7"/>
+        <v>10510.642066420663</v>
       </c>
       <c r="J23" s="10">
-        <f>SUM(J12:J19)</f>
-        <v>10722.070110701106</v>
+        <f t="shared" si="7"/>
+        <v>7897.9963099630986</v>
       </c>
       <c r="K23" s="10">
-        <f>SUM(K12:K19)</f>
-        <v>10583</v>
+        <f t="shared" si="7"/>
+        <v>7546</v>
       </c>
       <c r="L23" s="10">
-        <f>SUM(L12:L19)</f>
-        <v>15342.701107011071</v>
+        <f t="shared" si="7"/>
+        <v>11397.963099630997</v>
       </c>
       <c r="M23" s="3"/>
     </row>
@@ -13764,31 +15382,31 @@
         <v>32</v>
       </c>
       <c r="F24" s="10">
-        <f>SUM(F11)</f>
+        <f t="shared" ref="F24:L24" si="8">SUM(F11)</f>
         <v>148</v>
       </c>
       <c r="G24" s="10">
-        <f>SUM(G11)</f>
+        <f t="shared" si="8"/>
         <v>451</v>
       </c>
       <c r="H24" s="10">
-        <f>SUM(H11)</f>
+        <f t="shared" si="8"/>
         <v>395.2029520295203</v>
       </c>
       <c r="I24" s="10">
-        <f>SUM(I11)</f>
+        <f t="shared" si="8"/>
         <v>570.84870848708488</v>
       </c>
       <c r="J24" s="10">
-        <f>SUM(J11)</f>
+        <f t="shared" si="8"/>
         <v>442.62730627306274</v>
       </c>
       <c r="K24" s="10">
-        <f>SUM(K11)</f>
+        <f t="shared" si="8"/>
         <v>476</v>
       </c>
       <c r="L24" s="10">
-        <f>SUM(L11)</f>
+        <f t="shared" si="8"/>
         <v>618.27306273062732</v>
       </c>
       <c r="M24" s="3"/>
@@ -13798,31 +15416,31 @@
         <v>33</v>
       </c>
       <c r="F25" s="3">
-        <f>F7</f>
+        <f t="shared" ref="F25:L25" si="9">F7</f>
         <v>221</v>
       </c>
       <c r="G25" s="3">
-        <f>G7</f>
+        <f t="shared" si="9"/>
         <v>399</v>
       </c>
       <c r="H25" s="3">
-        <f>H7</f>
+        <f t="shared" si="9"/>
         <v>930.71955719557195</v>
       </c>
       <c r="I25" s="3">
-        <f>I7</f>
+        <f t="shared" si="9"/>
         <v>1121</v>
       </c>
       <c r="J25" s="3">
-        <f>J7</f>
+        <f t="shared" si="9"/>
         <v>1121</v>
       </c>
       <c r="K25" s="3">
-        <f>K7</f>
+        <f t="shared" si="9"/>
         <v>1121</v>
       </c>
       <c r="L25" s="3">
-        <f>L7</f>
+        <f t="shared" si="9"/>
         <v>1200</v>
       </c>
       <c r="M25" s="3"/>
@@ -13934,6 +15552,224 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H5:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -14015,7 +15851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:AE25"/>
   <sheetViews>
@@ -14438,350 +16274,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.74570000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6">
-        <v>350</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
-      </c>
-      <c r="E6">
-        <v>224</v>
-      </c>
-      <c r="F6">
-        <v>250</v>
-      </c>
-      <c r="G6">
-        <v>350</v>
-      </c>
-      <c r="H6">
-        <v>380</v>
-      </c>
-      <c r="I6">
-        <v>200</v>
-      </c>
-      <c r="J6">
-        <v>210</v>
-      </c>
-      <c r="K6">
-        <v>240</v>
-      </c>
-      <c r="L6">
-        <v>103</v>
-      </c>
-      <c r="M6">
-        <v>118</v>
-      </c>
-      <c r="N6">
-        <v>135</v>
-      </c>
-      <c r="O6">
-        <v>162</v>
-      </c>
-      <c r="P6">
-        <v>228</v>
-      </c>
-      <c r="Q6">
-        <v>134</v>
-      </c>
-      <c r="R6">
-        <v>228</v>
-      </c>
-      <c r="S6">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1343</v>
-      </c>
-      <c r="C7">
-        <v>1343</v>
-      </c>
-      <c r="D7">
-        <v>929</v>
-      </c>
-      <c r="E7">
-        <v>380</v>
-      </c>
-      <c r="F7">
-        <v>521</v>
-      </c>
-      <c r="G7">
-        <v>770</v>
-      </c>
-      <c r="H7">
-        <v>997</v>
-      </c>
-      <c r="I7">
-        <v>522</v>
-      </c>
-      <c r="J7">
-        <v>737</v>
-      </c>
-      <c r="K7">
-        <v>867</v>
-      </c>
-      <c r="L7">
-        <v>390</v>
-      </c>
-      <c r="M7">
-        <v>400</v>
-      </c>
-      <c r="N7">
-        <v>510</v>
-      </c>
-      <c r="O7">
-        <v>529</v>
-      </c>
-      <c r="P7">
-        <v>680</v>
-      </c>
-      <c r="Q7">
-        <v>390</v>
-      </c>
-      <c r="R7">
-        <v>900</v>
-      </c>
-      <c r="S7">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>147</v>
-      </c>
-      <c r="C11">
-        <v>180</v>
-      </c>
-      <c r="D11">
-        <v>294</v>
-      </c>
-      <c r="E11">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>520</v>
-      </c>
-      <c r="C12">
-        <v>800</v>
-      </c>
-      <c r="D12">
-        <v>870</v>
-      </c>
-      <c r="E12">
-        <v>1240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>93</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>145</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/dev/Assumptions and data for buses.xlsx
+++ b/dev/Assumptions and data for buses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25812" windowHeight="14028" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="25812" windowHeight="14028" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="21" r:id="rId1"/>
@@ -32,9 +32,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Battery electric buses'!$A$1:$V$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Diesel buses'!$A$1:$R$68</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" iterate="1"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="333">
   <si>
     <t>kW</t>
   </si>
@@ -1017,18 +1017,6 @@
   </si>
   <si>
     <t>Citywide LE4</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>HAW</t>
@@ -1244,7 +1232,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1646,7 +1633,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2142,7 +2128,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,7 +2213,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2447,7 +2431,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3141,7 +3124,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3259,7 +3241,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3340,7 +3321,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3457,7 +3437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3543,7 +3522,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3765,7 +3743,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3883,7 +3860,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4039,7 +4015,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4125,7 +4100,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4263,7 +4237,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4381,7 +4354,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4537,7 +4509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4612,7 +4583,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4756,7 +4726,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4874,7 +4843,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5049,7 +5017,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -12413,7 +12380,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
@@ -13974,12 +13941,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U182" sqref="U182"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:W181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14078,7 +14044,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -14142,7 +14108,7 @@
         <v>2639.7222222222222</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -14203,7 +14169,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -14267,7 +14233,7 @@
         <v>2538.1944444444443</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -14313,7 +14279,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -14360,7 +14326,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -14414,7 +14380,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -14478,7 +14444,7 @@
         <v>3553.4722222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -14532,7 +14498,7 @@
       </c>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -14599,7 +14565,7 @@
         <v>3553.4722222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -14666,7 +14632,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -14715,7 +14681,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -14779,7 +14745,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -14840,7 +14806,7 @@
         <v>4974.8611111111113</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -14907,7 +14873,7 @@
         <v>2538.1944444444443</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -14972,7 +14938,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -15039,7 +15005,7 @@
         <v>3702.7777777777778</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -15104,7 +15070,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -15171,7 +15137,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -15239,7 +15205,7 @@
         <v>3702.7777777777778</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -15296,7 +15262,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -15347,7 +15313,7 @@
         <v>3702.7777777777778</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -15398,7 +15364,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -15452,7 +15418,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -15520,7 +15486,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -15582,7 +15548,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -15636,7 +15602,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -15693,7 +15659,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -15757,7 +15723,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -15821,7 +15787,7 @@
         <v>4517.9861111111113</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -15873,7 +15839,7 @@
         <v>5584.0277777777774</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -15940,7 +15906,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -15992,7 +15958,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -16041,7 +16007,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -16090,7 +16056,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -16154,7 +16120,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -16209,7 +16175,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -16273,7 +16239,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -16328,7 +16294,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -16389,7 +16355,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -16450,7 +16416,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -16511,7 +16477,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -16572,7 +16538,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -16629,7 +16595,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16671,7 +16637,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -16713,7 +16679,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -16755,7 +16721,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -16816,7 +16782,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -16880,7 +16846,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -16922,7 +16888,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -16977,7 +16943,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -17019,7 +16985,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -17074,7 +17040,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -17129,7 +17095,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -17190,7 +17156,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -17245,7 +17211,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -17300,7 +17266,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -17350,7 +17316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -17400,7 +17366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -17450,7 +17416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -17500,7 +17466,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -17543,7 +17509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -17607,7 +17573,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -17671,7 +17637,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -17735,7 +17701,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -17799,7 +17765,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -17863,7 +17829,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -17927,7 +17893,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -17970,7 +17936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -18013,7 +17979,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -18056,7 +18022,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -18099,7 +18065,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -18156,7 +18122,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>261</v>
       </c>
@@ -18212,7 +18178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>261</v>
       </c>
@@ -18265,7 +18231,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>258</v>
       </c>
@@ -18331,7 +18297,7 @@
         <v>1266.6666666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -18387,10 +18353,10 @@
         <v>262</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C78" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D78" t="s">
         <v>65</v>
@@ -18425,14 +18391,14 @@
         <v>61</v>
       </c>
       <c r="V78">
-        <f>U78</f>
+        <f t="shared" ref="V78:V99" si="11">U78</f>
         <v>61</v>
       </c>
       <c r="W78" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -18475,14 +18441,14 @@
         <v>330</v>
       </c>
       <c r="V79">
-        <f>U79</f>
+        <f t="shared" si="11"/>
         <v>330</v>
       </c>
       <c r="W79" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>262</v>
       </c>
@@ -18499,7 +18465,7 @@
         <v>165</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" ref="F80" si="11">D80&amp;" - "&amp;E80</f>
+        <f t="shared" ref="F80" si="12">D80&amp;" - "&amp;E80</f>
         <v>City - Single</v>
       </c>
       <c r="G80" t="s">
@@ -18525,14 +18491,14 @@
         <v>240</v>
       </c>
       <c r="V80">
-        <f>U80</f>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="W80" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -18581,14 +18547,14 @@
         <v>324</v>
       </c>
       <c r="V81">
-        <f>U81</f>
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
       <c r="W81" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>262</v>
       </c>
@@ -18605,7 +18571,7 @@
         <v>165</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" ref="F82:F91" si="12">D82&amp;" - "&amp;E82</f>
+        <f t="shared" ref="F82:F91" si="13">D82&amp;" - "&amp;E82</f>
         <v>City - Single</v>
       </c>
       <c r="G82" t="s">
@@ -18637,14 +18603,14 @@
         <v>324</v>
       </c>
       <c r="V82">
-        <f>U82</f>
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
       <c r="W82" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -18661,7 +18627,7 @@
         <v>165</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" ref="F83" si="13">D83&amp;" - "&amp;E83</f>
+        <f t="shared" ref="F83" si="14">D83&amp;" - "&amp;E83</f>
         <v>City - Single</v>
       </c>
       <c r="G83" t="s">
@@ -18693,14 +18659,14 @@
         <v>292</v>
       </c>
       <c r="V83">
-        <f>U83</f>
+        <f t="shared" si="11"/>
         <v>292</v>
       </c>
       <c r="W83" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>262</v>
       </c>
@@ -18717,7 +18683,7 @@
         <v>165</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" ref="F84" si="14">D84&amp;" - "&amp;E84</f>
+        <f t="shared" ref="F84" si="15">D84&amp;" - "&amp;E84</f>
         <v>City - Single</v>
       </c>
       <c r="G84" t="s">
@@ -18743,14 +18709,14 @@
         <v>150</v>
       </c>
       <c r="V84">
-        <f>U84</f>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="W84" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -18767,7 +18733,7 @@
         <v>165</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" ref="F85" si="15">D85&amp;" - "&amp;E85</f>
+        <f t="shared" ref="F85" si="16">D85&amp;" - "&amp;E85</f>
         <v>City - Single</v>
       </c>
       <c r="G85" t="s">
@@ -18790,14 +18756,14 @@
         <v>311</v>
       </c>
       <c r="V85">
-        <f>U85</f>
+        <f t="shared" si="11"/>
         <v>311</v>
       </c>
       <c r="W85" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -18805,7 +18771,7 @@
         <v>314</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
         <v>65</v>
@@ -18814,7 +18780,7 @@
         <v>165</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" ref="F86" si="16">D86&amp;" - "&amp;E86</f>
+        <f t="shared" ref="F86" si="17">D86&amp;" - "&amp;E86</f>
         <v>City - Single</v>
       </c>
       <c r="G86" t="s">
@@ -18843,14 +18809,14 @@
         <v>363</v>
       </c>
       <c r="V86">
-        <f>U86</f>
+        <f t="shared" si="11"/>
         <v>363</v>
       </c>
       <c r="W86" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -18858,7 +18824,7 @@
         <v>314</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D87" t="s">
         <v>65</v>
@@ -18867,7 +18833,7 @@
         <v>272</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" ref="F87" si="17">D87&amp;" - "&amp;E87</f>
+        <f t="shared" ref="F87" si="18">D87&amp;" - "&amp;E87</f>
         <v>City - Artic.</v>
       </c>
       <c r="G87" t="s">
@@ -18896,14 +18862,14 @@
         <v>525</v>
       </c>
       <c r="V87">
-        <f>U87</f>
+        <f t="shared" si="11"/>
         <v>525</v>
       </c>
       <c r="W87" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -18920,7 +18886,7 @@
         <v>270</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>City - Midi</v>
       </c>
       <c r="G88" t="s">
@@ -18949,14 +18915,14 @@
         <v>144</v>
       </c>
       <c r="V88">
-        <f>U88</f>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="W88" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -18973,7 +18939,7 @@
         <v>165</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>City - Single</v>
       </c>
       <c r="G89" t="s">
@@ -18996,22 +18962,22 @@
         <v>86</v>
       </c>
       <c r="V89">
-        <f>U89</f>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="W89" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D90" t="s">
         <v>65</v>
@@ -19020,7 +18986,7 @@
         <v>165</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>City - Single</v>
       </c>
       <c r="G90" t="s">
@@ -19043,22 +19009,22 @@
         <v>80</v>
       </c>
       <c r="V90">
-        <f>U90</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="W90" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>262</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D91" t="s">
         <v>65</v>
@@ -19067,7 +19033,7 @@
         <v>272</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>City - Artic.</v>
       </c>
       <c r="G91" t="s">
@@ -19090,14 +19056,14 @@
         <v>80</v>
       </c>
       <c r="V91">
-        <f>U91</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="W91" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>262</v>
       </c>
@@ -19114,7 +19080,7 @@
         <v>165</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" ref="F92:F94" si="18">D92&amp;" - "&amp;E92</f>
+        <f t="shared" ref="F92:F94" si="19">D92&amp;" - "&amp;E92</f>
         <v>City - Single</v>
       </c>
       <c r="G92" t="s">
@@ -19137,14 +19103,14 @@
         <v>60</v>
       </c>
       <c r="V92">
-        <f>U92</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="W92" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -19152,7 +19118,7 @@
         <v>308</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D93" t="s">
         <v>65</v>
@@ -19161,7 +19127,7 @@
         <v>272</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>City - Artic.</v>
       </c>
       <c r="G93" t="s">
@@ -19190,14 +19156,14 @@
         <v>66</v>
       </c>
       <c r="V93">
-        <f>U93</f>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="W93" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>262</v>
       </c>
@@ -19205,7 +19171,7 @@
         <v>308</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D94" t="s">
         <v>65</v>
@@ -19214,7 +19180,7 @@
         <v>272</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>City - Artic.</v>
       </c>
       <c r="G94" t="s">
@@ -19237,14 +19203,14 @@
         <v>23</v>
       </c>
       <c r="V94">
-        <f>U94</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="W94" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -19261,7 +19227,7 @@
         <v>165</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" ref="F95" si="19">D95&amp;" - "&amp;E95</f>
+        <f t="shared" ref="F95" si="20">D95&amp;" - "&amp;E95</f>
         <v>City - Single</v>
       </c>
       <c r="G95" t="s">
@@ -19284,14 +19250,14 @@
         <v>199</v>
       </c>
       <c r="V95">
-        <f>U95</f>
+        <f t="shared" si="11"/>
         <v>199</v>
       </c>
       <c r="W95" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -19308,7 +19274,7 @@
         <v>165</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ref="F96" si="20">D96&amp;" - "&amp;E96</f>
+        <f t="shared" ref="F96" si="21">D96&amp;" - "&amp;E96</f>
         <v>City - Single</v>
       </c>
       <c r="G96" t="s">
@@ -19331,14 +19297,14 @@
         <v>376</v>
       </c>
       <c r="V96">
-        <f>U96</f>
+        <f t="shared" si="11"/>
         <v>376</v>
       </c>
       <c r="W96" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -19355,7 +19321,7 @@
         <v>165</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" ref="F97" si="21">D97&amp;" - "&amp;E97</f>
+        <f t="shared" ref="F97" si="22">D97&amp;" - "&amp;E97</f>
         <v>City - Single</v>
       </c>
       <c r="G97" t="s">
@@ -19378,14 +19344,14 @@
         <v>339</v>
       </c>
       <c r="V97">
-        <f>U97</f>
+        <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="W97" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -19402,7 +19368,7 @@
         <v>165</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ref="F98" si="22">D98&amp;" - "&amp;E98</f>
+        <f t="shared" ref="F98" si="23">D98&amp;" - "&amp;E98</f>
         <v>City - Single</v>
       </c>
       <c r="G98" t="s">
@@ -19428,14 +19394,14 @@
         <v>55</v>
       </c>
       <c r="V98">
-        <f>U98</f>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="W98" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>262</v>
       </c>
@@ -19491,14 +19457,14 @@
         <v>138</v>
       </c>
       <c r="V99">
-        <f>U99</f>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="W99" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -19554,14 +19520,14 @@
         <v>138</v>
       </c>
       <c r="V100">
-        <f t="shared" ref="V100:V177" si="23">U100</f>
+        <f t="shared" ref="V100:V177" si="24">U100</f>
         <v>138</v>
       </c>
       <c r="W100" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>262</v>
       </c>
@@ -19608,14 +19574,14 @@
         <v>138</v>
       </c>
       <c r="V101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>138</v>
       </c>
       <c r="W101" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -19632,7 +19598,7 @@
         <v>270</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" ref="F102" si="24">D102&amp;" - "&amp;E102</f>
+        <f t="shared" ref="F102" si="25">D102&amp;" - "&amp;E102</f>
         <v>City - Midi</v>
       </c>
       <c r="G102" t="s">
@@ -19652,7 +19618,7 @@
         <v>12960</v>
       </c>
       <c r="P102">
-        <f t="shared" ref="P102" si="25">SUM(Q102:R102)</f>
+        <f t="shared" ref="P102" si="26">SUM(Q102:R102)</f>
         <v>150</v>
       </c>
       <c r="R102">
@@ -19662,7 +19628,7 @@
         <v>92</v>
       </c>
       <c r="V102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>92</v>
       </c>
       <c r="W102" t="s">
@@ -19686,7 +19652,7 @@
         <v>270</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" ref="F103" si="26">D103&amp;" - "&amp;E103</f>
+        <f t="shared" ref="F103" si="27">D103&amp;" - "&amp;E103</f>
         <v>City - Midi</v>
       </c>
       <c r="G103" t="s">
@@ -19709,7 +19675,7 @@
         <v>86</v>
       </c>
       <c r="V103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>86</v>
       </c>
       <c r="W103" t="s">
@@ -19733,7 +19699,7 @@
         <v>270</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" ref="F104:F106" si="27">D104&amp;" - "&amp;E104</f>
+        <f t="shared" ref="F104:F106" si="28">D104&amp;" - "&amp;E104</f>
         <v>City - Midi</v>
       </c>
       <c r="G104" t="s">
@@ -19756,7 +19722,7 @@
         <v>150</v>
       </c>
       <c r="V104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>150</v>
       </c>
       <c r="W104" t="s">
@@ -19780,7 +19746,7 @@
         <v>270</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" ref="F105" si="28">D105&amp;" - "&amp;E105</f>
+        <f t="shared" ref="F105" si="29">D105&amp;" - "&amp;E105</f>
         <v>City - Midi</v>
       </c>
       <c r="G105" t="s">
@@ -19803,7 +19769,7 @@
         <v>95</v>
       </c>
       <c r="V105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>95</v>
       </c>
       <c r="W105" t="s">
@@ -19818,7 +19784,7 @@
         <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D106" t="s">
         <v>65</v>
@@ -19827,7 +19793,7 @@
         <v>270</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>City - Midi</v>
       </c>
       <c r="G106" t="s">
@@ -19850,14 +19816,14 @@
         <v>95</v>
       </c>
       <c r="V106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>95</v>
       </c>
       <c r="W106" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>262</v>
       </c>
@@ -19904,14 +19870,14 @@
         <v>170</v>
       </c>
       <c r="V107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>170</v>
       </c>
       <c r="W107" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -19961,14 +19927,14 @@
         <v>180</v>
       </c>
       <c r="V108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="W108" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>262</v>
       </c>
@@ -20015,14 +19981,14 @@
         <v>135</v>
       </c>
       <c r="V109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>135</v>
       </c>
       <c r="W109" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>262</v>
       </c>
@@ -20039,7 +20005,7 @@
         <v>270</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" ref="F110" si="29">D110&amp;" - "&amp;E110</f>
+        <f t="shared" ref="F110" si="30">D110&amp;" - "&amp;E110</f>
         <v>City - Midi</v>
       </c>
       <c r="G110" t="s">
@@ -20065,14 +20031,14 @@
         <v>230</v>
       </c>
       <c r="V110">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
       <c r="W110" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -20089,7 +20055,7 @@
         <v>165</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" ref="F111" si="30">D111&amp;" - "&amp;E111</f>
+        <f t="shared" ref="F111" si="31">D111&amp;" - "&amp;E111</f>
         <v>City - Single</v>
       </c>
       <c r="G111" t="s">
@@ -20115,14 +20081,14 @@
         <v>230</v>
       </c>
       <c r="V111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
       <c r="W111" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -20139,7 +20105,7 @@
         <v>165</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" ref="F112:F113" si="31">D112&amp;" - "&amp;E112</f>
+        <f t="shared" ref="F112:F113" si="32">D112&amp;" - "&amp;E112</f>
         <v>City - Single</v>
       </c>
       <c r="G112" t="s">
@@ -20165,14 +20131,14 @@
         <v>260</v>
       </c>
       <c r="V112">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>260</v>
       </c>
       <c r="W112" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>262</v>
       </c>
@@ -20180,7 +20146,7 @@
         <v>303</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D113" t="s">
         <v>65</v>
@@ -20189,7 +20155,7 @@
         <v>272</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>City - Artic.</v>
       </c>
       <c r="G113" t="s">
@@ -20215,14 +20181,14 @@
         <v>300</v>
       </c>
       <c r="V113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="W113" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -20239,7 +20205,7 @@
         <v>165</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" ref="F114" si="32">D114&amp;" - "&amp;E114</f>
+        <f t="shared" ref="F114" si="33">D114&amp;" - "&amp;E114</f>
         <v>City - Single</v>
       </c>
       <c r="G114" t="s">
@@ -20262,14 +20228,14 @@
         <v>56</v>
       </c>
       <c r="V114">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>56</v>
       </c>
       <c r="W114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>262</v>
       </c>
@@ -20319,14 +20285,14 @@
         <v>230</v>
       </c>
       <c r="V115">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
       <c r="W115" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -20343,7 +20309,7 @@
         <v>165</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" ref="F116" si="33">D116&amp;" - "&amp;E116</f>
+        <f t="shared" ref="F116" si="34">D116&amp;" - "&amp;E116</f>
         <v>City - Single</v>
       </c>
       <c r="G116" t="s">
@@ -20366,7 +20332,7 @@
         <v>18600</v>
       </c>
       <c r="P116">
-        <f t="shared" ref="P116" si="34">SUM(Q116:R116)</f>
+        <f t="shared" ref="P116" si="35">SUM(Q116:R116)</f>
         <v>160</v>
       </c>
       <c r="R116">
@@ -20376,14 +20342,14 @@
         <v>222</v>
       </c>
       <c r="V116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>222</v>
       </c>
       <c r="W116" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -20433,14 +20399,14 @@
         <v>80</v>
       </c>
       <c r="V117">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="W117" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -20457,7 +20423,7 @@
         <v>165</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" ref="F118:F119" si="35">D118&amp;" - "&amp;E118</f>
+        <f t="shared" ref="F118:F119" si="36">D118&amp;" - "&amp;E118</f>
         <v>City - Single</v>
       </c>
       <c r="G118" t="s">
@@ -20480,7 +20446,7 @@
         <v>18600</v>
       </c>
       <c r="P118">
-        <f t="shared" ref="P118" si="36">SUM(Q118:R118)</f>
+        <f t="shared" ref="P118" si="37">SUM(Q118:R118)</f>
         <v>160</v>
       </c>
       <c r="R118">
@@ -20490,14 +20456,14 @@
         <v>75</v>
       </c>
       <c r="V118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="W118" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>262</v>
       </c>
@@ -20514,7 +20480,7 @@
         <v>165</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>City - Single</v>
       </c>
       <c r="G119" t="s">
@@ -20546,14 +20512,14 @@
         <v>45</v>
       </c>
       <c r="V119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="W119" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>262</v>
       </c>
@@ -20603,14 +20569,14 @@
         <v>50</v>
       </c>
       <c r="V120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="W120" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>262</v>
       </c>
@@ -20663,14 +20629,14 @@
         <v>80</v>
       </c>
       <c r="V121">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="W121" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -20710,14 +20676,14 @@
         <v>81</v>
       </c>
       <c r="V122">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="W122" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -20767,7 +20733,7 @@
         <v>120</v>
       </c>
       <c r="V123">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
       <c r="W123" t="s">
@@ -20791,7 +20757,7 @@
         <v>270</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" ref="F124" si="37">D124&amp;" - "&amp;E124</f>
+        <f t="shared" ref="F124" si="38">D124&amp;" - "&amp;E124</f>
         <v>City - Midi</v>
       </c>
       <c r="G124" t="s">
@@ -20814,7 +20780,7 @@
         <v>14500</v>
       </c>
       <c r="P124">
-        <f t="shared" ref="P124" si="38">SUM(Q124:R124)</f>
+        <f t="shared" ref="P124" si="39">SUM(Q124:R124)</f>
         <v>160</v>
       </c>
       <c r="R124">
@@ -20824,14 +20790,14 @@
         <v>80</v>
       </c>
       <c r="V124">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="W124" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -20884,14 +20850,14 @@
         <v>230</v>
       </c>
       <c r="V125">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
       <c r="W125" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -20908,7 +20874,7 @@
         <v>165</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" ref="F126" si="39">D126&amp;" - "&amp;E126</f>
+        <f t="shared" ref="F126" si="40">D126&amp;" - "&amp;E126</f>
         <v>City - Single</v>
       </c>
       <c r="G126" t="s">
@@ -20934,7 +20900,7 @@
         <v>18000</v>
       </c>
       <c r="P126">
-        <f t="shared" ref="P126" si="40">SUM(Q126:R126)</f>
+        <f t="shared" ref="P126" si="41">SUM(Q126:R126)</f>
         <v>120</v>
       </c>
       <c r="R126">
@@ -20944,14 +20910,14 @@
         <v>210</v>
       </c>
       <c r="V126">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>210</v>
       </c>
       <c r="W126" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>262</v>
       </c>
@@ -20968,7 +20934,7 @@
         <v>165</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" ref="F127" si="41">D127&amp;" - "&amp;E127</f>
+        <f t="shared" ref="F127" si="42">D127&amp;" - "&amp;E127</f>
         <v>City - Single</v>
       </c>
       <c r="G127" t="s">
@@ -20994,7 +20960,7 @@
         <v>18000</v>
       </c>
       <c r="P127">
-        <f t="shared" ref="P127" si="42">SUM(Q127:R127)</f>
+        <f t="shared" ref="P127" si="43">SUM(Q127:R127)</f>
         <v>120</v>
       </c>
       <c r="R127">
@@ -21004,14 +20970,14 @@
         <v>200</v>
       </c>
       <c r="V127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="W127" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -21028,7 +20994,7 @@
         <v>165</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" ref="F128" si="43">D128&amp;" - "&amp;E128</f>
+        <f t="shared" ref="F128" si="44">D128&amp;" - "&amp;E128</f>
         <v>City - Single</v>
       </c>
       <c r="G128" t="s">
@@ -21054,14 +21020,14 @@
         <v>60</v>
       </c>
       <c r="V128">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="W128" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -21104,14 +21070,14 @@
         <v>70</v>
       </c>
       <c r="V129">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="W129" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>262</v>
       </c>
@@ -21128,7 +21094,7 @@
         <v>165</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" ref="F130" si="44">D130&amp;" - "&amp;E130</f>
+        <f t="shared" ref="F130" si="45">D130&amp;" - "&amp;E130</f>
         <v>City - Single</v>
       </c>
       <c r="G130" t="s">
@@ -21154,14 +21120,14 @@
         <v>90</v>
       </c>
       <c r="V130">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="W130" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>262</v>
       </c>
@@ -21178,7 +21144,7 @@
         <v>165</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131" si="45">D131&amp;" - "&amp;E131</f>
+        <f t="shared" ref="F131" si="46">D131&amp;" - "&amp;E131</f>
         <v>City - Single</v>
       </c>
       <c r="G131" t="s">
@@ -21204,14 +21170,14 @@
         <v>100</v>
       </c>
       <c r="V131">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="W131" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -21228,7 +21194,7 @@
         <v>165</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" ref="F132" si="46">D132&amp;" - "&amp;E132</f>
+        <f t="shared" ref="F132" si="47">D132&amp;" - "&amp;E132</f>
         <v>City - Single</v>
       </c>
       <c r="G132" t="s">
@@ -21254,14 +21220,14 @@
         <v>120</v>
       </c>
       <c r="V132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
       <c r="W132" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -21278,7 +21244,7 @@
         <v>165</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ref="F133" si="47">D133&amp;" - "&amp;E133</f>
+        <f t="shared" ref="F133" si="48">D133&amp;" - "&amp;E133</f>
         <v>City - Single</v>
       </c>
       <c r="G133" t="s">
@@ -21304,14 +21270,14 @@
         <v>160</v>
       </c>
       <c r="V133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>160</v>
       </c>
       <c r="W133" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -21364,14 +21330,14 @@
         <v>240</v>
       </c>
       <c r="V134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
       <c r="W134" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>262</v>
       </c>
@@ -21388,7 +21354,7 @@
         <v>272</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" ref="F135" si="48">D135&amp;" - "&amp;E135</f>
+        <f t="shared" ref="F135" si="49">D135&amp;" - "&amp;E135</f>
         <v>City - Artic.</v>
       </c>
       <c r="G135" t="s">
@@ -21411,7 +21377,7 @@
         <v>28000</v>
       </c>
       <c r="P135">
-        <f t="shared" ref="P135" si="49">SUM(Q135:R135)</f>
+        <f t="shared" ref="P135" si="50">SUM(Q135:R135)</f>
         <v>240</v>
       </c>
       <c r="R135">
@@ -21421,14 +21387,14 @@
         <v>125</v>
       </c>
       <c r="V135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="W135" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>262</v>
       </c>
@@ -21481,14 +21447,14 @@
         <v>69</v>
       </c>
       <c r="V136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="W136" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -21505,7 +21471,7 @@
         <v>165</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" ref="F137" si="50">D137&amp;" - "&amp;E137</f>
+        <f t="shared" ref="F137" si="51">D137&amp;" - "&amp;E137</f>
         <v>City - Single</v>
       </c>
       <c r="G137" t="s">
@@ -21531,7 +21497,7 @@
         <v>18000</v>
       </c>
       <c r="P137">
-        <f t="shared" ref="P137" si="51">SUM(Q137:R137)</f>
+        <f t="shared" ref="P137" si="52">SUM(Q137:R137)</f>
         <v>160</v>
       </c>
       <c r="R137">
@@ -21541,14 +21507,14 @@
         <v>37</v>
       </c>
       <c r="V137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="W137" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -21565,7 +21531,7 @@
         <v>272</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" ref="F138" si="52">D138&amp;" - "&amp;E138</f>
+        <f t="shared" ref="F138" si="53">D138&amp;" - "&amp;E138</f>
         <v>City - Artic.</v>
       </c>
       <c r="G138" t="s">
@@ -21588,7 +21554,7 @@
         <v>28000</v>
       </c>
       <c r="P138">
-        <f t="shared" ref="P138" si="53">SUM(Q138:R138)</f>
+        <f t="shared" ref="P138" si="54">SUM(Q138:R138)</f>
         <v>250</v>
       </c>
       <c r="R138">
@@ -21598,14 +21564,14 @@
         <v>90</v>
       </c>
       <c r="V138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="W138" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -21655,14 +21621,14 @@
         <v>69</v>
       </c>
       <c r="V139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="W139" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>262</v>
       </c>
@@ -21679,7 +21645,7 @@
         <v>272</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" ref="F140" si="54">D140&amp;" - "&amp;E140</f>
+        <f t="shared" ref="F140" si="55">D140&amp;" - "&amp;E140</f>
         <v>City - Artic.</v>
       </c>
       <c r="G140" t="s">
@@ -21702,7 +21668,7 @@
         <v>28000</v>
       </c>
       <c r="P140">
-        <f t="shared" ref="P140" si="55">SUM(Q140:R140)</f>
+        <f t="shared" ref="P140" si="56">SUM(Q140:R140)</f>
         <v>250</v>
       </c>
       <c r="R140">
@@ -21712,14 +21678,14 @@
         <v>72</v>
       </c>
       <c r="V140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="W140" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>262</v>
       </c>
@@ -21736,7 +21702,7 @@
         <v>272</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" ref="F141" si="56">D141&amp;" - "&amp;E141</f>
+        <f t="shared" ref="F141" si="57">D141&amp;" - "&amp;E141</f>
         <v>City - Artic.</v>
       </c>
       <c r="G141" t="s">
@@ -21759,7 +21725,7 @@
         <v>28000</v>
       </c>
       <c r="P141">
-        <f t="shared" ref="P141" si="57">SUM(Q141:R141)</f>
+        <f t="shared" ref="P141" si="58">SUM(Q141:R141)</f>
         <v>250</v>
       </c>
       <c r="R141">
@@ -21769,14 +21735,14 @@
         <v>38</v>
       </c>
       <c r="V141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>38</v>
       </c>
       <c r="W141" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>262</v>
       </c>
@@ -21826,14 +21792,14 @@
         <v>172</v>
       </c>
       <c r="V142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="W142" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>262</v>
       </c>
@@ -21883,14 +21849,14 @@
         <v>172</v>
       </c>
       <c r="V143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="W143" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>262</v>
       </c>
@@ -21943,14 +21909,14 @@
         <v>200</v>
       </c>
       <c r="V144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
       <c r="W144" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>262</v>
       </c>
@@ -22000,14 +21966,14 @@
         <v>75</v>
       </c>
       <c r="V145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="W145" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>262</v>
       </c>
@@ -22050,14 +22016,14 @@
         <v>384</v>
       </c>
       <c r="V146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>384</v>
       </c>
       <c r="W146" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>262</v>
       </c>
@@ -22107,14 +22073,14 @@
         <v>120</v>
       </c>
       <c r="V147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
       <c r="W147" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>262</v>
       </c>
@@ -22167,14 +22133,14 @@
         <v>175</v>
       </c>
       <c r="V148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>175</v>
       </c>
       <c r="W148" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>262</v>
       </c>
@@ -22227,14 +22193,14 @@
         <v>210</v>
       </c>
       <c r="V149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>210</v>
       </c>
       <c r="W149" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>262</v>
       </c>
@@ -22287,14 +22253,14 @@
         <v>175</v>
       </c>
       <c r="V150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>175</v>
       </c>
       <c r="W150" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -22344,14 +22310,14 @@
         <v>105</v>
       </c>
       <c r="V151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="W151" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>262</v>
       </c>
@@ -22401,14 +22367,14 @@
         <v>105</v>
       </c>
       <c r="V152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="W152" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>262</v>
       </c>
@@ -22448,14 +22414,14 @@
         <v>14</v>
       </c>
       <c r="V153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="W153" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -22508,14 +22474,14 @@
         <v>35</v>
       </c>
       <c r="V154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="W154" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>262</v>
       </c>
@@ -22532,7 +22498,7 @@
         <v>272</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" ref="F155" si="58">D155&amp;" - "&amp;E155</f>
+        <f t="shared" ref="F155" si="59">D155&amp;" - "&amp;E155</f>
         <v>City - Artic.</v>
       </c>
       <c r="G155" t="s">
@@ -22558,7 +22524,7 @@
         <v>29000</v>
       </c>
       <c r="P155">
-        <f t="shared" ref="P155" si="59">SUM(Q155:R155)</f>
+        <f t="shared" ref="P155" si="60">SUM(Q155:R155)</f>
         <v>120</v>
       </c>
       <c r="R155">
@@ -22568,14 +22534,14 @@
         <v>28</v>
       </c>
       <c r="V155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="W155" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>262</v>
       </c>
@@ -22628,7 +22594,7 @@
         <v>20</v>
       </c>
       <c r="V156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="W156" t="s">
@@ -22675,14 +22641,14 @@
         <v>37</v>
       </c>
       <c r="V157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="W157" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -22722,14 +22688,14 @@
         <v>23</v>
       </c>
       <c r="V158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="W158" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>262</v>
       </c>
@@ -22769,7 +22735,7 @@
         <v>19</v>
       </c>
       <c r="V159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="W159" t="s">
@@ -22826,14 +22792,14 @@
         <v>80</v>
       </c>
       <c r="V160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="W160" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>262</v>
       </c>
@@ -22883,14 +22849,14 @@
         <v>240</v>
       </c>
       <c r="V161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>240</v>
       </c>
       <c r="W161" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>262</v>
       </c>
@@ -22907,7 +22873,7 @@
         <v>165</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" ref="F162" si="60">D162&amp;" - "&amp;E162</f>
+        <f t="shared" ref="F162" si="61">D162&amp;" - "&amp;E162</f>
         <v>City - Single</v>
       </c>
       <c r="G162" t="s">
@@ -22930,7 +22896,7 @@
         <v>19500</v>
       </c>
       <c r="P162">
-        <f t="shared" ref="P162" si="61">SUM(Q162:R162)</f>
+        <f t="shared" ref="P162" si="62">SUM(Q162:R162)</f>
         <v>153</v>
       </c>
       <c r="R162">
@@ -22940,14 +22906,14 @@
         <v>62.5</v>
       </c>
       <c r="V162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>62.5</v>
       </c>
       <c r="W162" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>262</v>
       </c>
@@ -22997,14 +22963,14 @@
         <v>180</v>
       </c>
       <c r="V163">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>180</v>
       </c>
       <c r="W163" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -23021,7 +22987,7 @@
         <v>272</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" ref="F164" si="62">D164&amp;" - "&amp;E164</f>
+        <f t="shared" ref="F164" si="63">D164&amp;" - "&amp;E164</f>
         <v>City - Artic.</v>
       </c>
       <c r="G164" t="s">
@@ -23044,7 +23010,7 @@
         <v>29000</v>
       </c>
       <c r="P164">
-        <f t="shared" ref="P164" si="63">SUM(Q164:R164)</f>
+        <f t="shared" ref="P164" si="64">SUM(Q164:R164)</f>
         <v>210</v>
       </c>
       <c r="R164">
@@ -23054,14 +23020,14 @@
         <v>123</v>
       </c>
       <c r="V164">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>123</v>
       </c>
       <c r="W164" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -23111,14 +23077,14 @@
         <v>76</v>
       </c>
       <c r="V165">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>76</v>
       </c>
       <c r="W165" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -23135,7 +23101,7 @@
         <v>165</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" ref="F166" si="64">D166&amp;" - "&amp;E166</f>
+        <f t="shared" ref="F166" si="65">D166&amp;" - "&amp;E166</f>
         <v>City - Single</v>
       </c>
       <c r="G166" t="s">
@@ -23158,7 +23124,7 @@
         <v>32</v>
       </c>
       <c r="V166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="W166" t="s">
@@ -23182,7 +23148,7 @@
         <v>270</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" ref="F167" si="65">D167&amp;" - "&amp;E167</f>
+        <f t="shared" ref="F167" si="66">D167&amp;" - "&amp;E167</f>
         <v>City - Midi</v>
       </c>
       <c r="G167" t="s">
@@ -23208,14 +23174,14 @@
         <v>72</v>
       </c>
       <c r="V167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="W167" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>262</v>
       </c>
@@ -23232,7 +23198,7 @@
         <v>270</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" ref="F168:F171" si="66">D168&amp;" - "&amp;E168</f>
+        <f t="shared" ref="F168:F171" si="67">D168&amp;" - "&amp;E168</f>
         <v>City - Midi</v>
       </c>
       <c r="G168" t="s">
@@ -23255,14 +23221,14 @@
         <v>172</v>
       </c>
       <c r="V168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="W168" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>262</v>
       </c>
@@ -23279,7 +23245,7 @@
         <v>165</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>City - Single</v>
       </c>
       <c r="G169" t="s">
@@ -23305,14 +23271,14 @@
         <v>172</v>
       </c>
       <c r="V169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>172</v>
       </c>
       <c r="W169" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>262</v>
       </c>
@@ -23329,7 +23295,7 @@
         <v>165</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>City - Single</v>
       </c>
       <c r="G170" t="s">
@@ -23352,22 +23318,22 @@
         <v>225</v>
       </c>
       <c r="V170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>225</v>
       </c>
       <c r="W170" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D171" t="s">
         <v>65</v>
@@ -23376,7 +23342,7 @@
         <v>272</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>City - Artic.</v>
       </c>
       <c r="G171" t="s">
@@ -23399,14 +23365,14 @@
         <v>40</v>
       </c>
       <c r="V171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>40</v>
       </c>
       <c r="W171" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>262</v>
       </c>
@@ -23423,7 +23389,7 @@
         <v>165</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" ref="F172" si="67">D172&amp;" - "&amp;E172</f>
+        <f t="shared" ref="F172" si="68">D172&amp;" - "&amp;E172</f>
         <v>City - Single</v>
       </c>
       <c r="G172" t="s">
@@ -23446,14 +23412,14 @@
         <v>230</v>
       </c>
       <c r="V172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>230</v>
       </c>
       <c r="W172" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>262</v>
       </c>
@@ -23470,7 +23436,7 @@
         <v>165</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" ref="F173" si="68">D173&amp;" - "&amp;E173</f>
+        <f t="shared" ref="F173" si="69">D173&amp;" - "&amp;E173</f>
         <v>City - Single</v>
       </c>
       <c r="G173" t="s">
@@ -23493,14 +23459,14 @@
         <v>295</v>
       </c>
       <c r="V173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>295</v>
       </c>
       <c r="W173" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>262</v>
       </c>
@@ -23555,14 +23521,14 @@
         <v>26</v>
       </c>
       <c r="V174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="W174" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>262</v>
       </c>
@@ -23617,14 +23583,14 @@
         <v>350</v>
       </c>
       <c r="V175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>350</v>
       </c>
       <c r="W175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>262</v>
       </c>
@@ -23679,14 +23645,14 @@
         <v>350</v>
       </c>
       <c r="V176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>350</v>
       </c>
       <c r="W176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>262</v>
       </c>
@@ -23741,14 +23707,14 @@
         <v>525</v>
       </c>
       <c r="V177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>525</v>
       </c>
       <c r="W177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>43</v>
       </c>
@@ -23798,7 +23764,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -23839,7 +23805,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -23856,7 +23822,7 @@
         <v>165</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" ref="F180:F181" si="69">D180&amp;" - "&amp;E180</f>
+        <f t="shared" ref="F180:F181" si="70">D180&amp;" - "&amp;E180</f>
         <v>City - Single</v>
       </c>
       <c r="G180" t="s">
@@ -23891,7 +23857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>43</v>
       </c>
@@ -23908,7 +23874,7 @@
         <v>272</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>City - Artic.</v>
       </c>
       <c r="G181" t="s">
@@ -23944,18 +23910,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W181">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Midi"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="Opportunity"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W181"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -26997,8 +26952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dev/Assumptions and data for buses.xlsx
+++ b/dev/Assumptions and data for buses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="8850" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="8856" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="21" r:id="rId1"/>
@@ -1261,7 +1261,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1663,7 +1662,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2183,7 +2181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2258,7 +2255,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -15003,13 +14999,13 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>244</v>
       </c>
@@ -15017,7 +15013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
@@ -15025,7 +15021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>65</v>
       </c>
@@ -15033,7 +15029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>247</v>
       </c>
@@ -15041,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>89</v>
       </c>
@@ -15049,13 +15045,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B6" s="22"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>92</v>
       </c>
@@ -15063,7 +15059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>74</v>
       </c>
@@ -15071,7 +15067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>89</v>
       </c>
@@ -15079,7 +15075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>92</v>
       </c>
@@ -15087,55 +15083,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="22"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="22"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="22"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>262</v>
       </c>
       <c r="B14" s="22"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="22"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="22"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="22"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="22"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>258</v>
       </c>
@@ -15143,7 +15139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>65</v>
       </c>
@@ -15151,7 +15147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>92</v>
       </c>
@@ -15159,7 +15155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -15167,7 +15163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>65</v>
       </c>
@@ -15175,7 +15171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>165</v>
       </c>
@@ -15183,7 +15179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>245</v>
       </c>
@@ -15205,9 +15201,9 @@
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -15215,7 +15211,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -15226,7 +15222,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>240</v>
       </c>
@@ -15237,7 +15233,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>241</v>
       </c>
@@ -15248,7 +15244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>242</v>
       </c>
@@ -15273,13 +15269,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>126</v>
       </c>
@@ -15287,7 +15283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -15298,7 +15294,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -15309,7 +15305,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>128</v>
       </c>
@@ -15317,7 +15313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -15328,7 +15324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -15355,9 +15351,9 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -15416,7 +15412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>0</v>
       </c>
@@ -15475,7 +15471,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>48</v>
       </c>
@@ -15537,7 +15533,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>0</v>
       </c>
@@ -15554,7 +15550,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>49</v>
       </c>
@@ -15574,17 +15570,17 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:24" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:24" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>0</v>
       </c>
@@ -15670,7 +15666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>50</v>
       </c>
@@ -15729,7 +15725,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="24" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>51</v>
       </c>
@@ -15746,7 +15742,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="25" spans="4:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>52</v>
       </c>
@@ -15780,14 +15776,14 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -15795,12 +15791,12 @@
         <v>0.74570000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -15859,7 +15855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -15918,7 +15914,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -15977,12 +15973,12 @@
         <v>930</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15999,7 +15995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -16016,7 +16012,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -16047,12 +16043,12 @@
       <selection activeCell="A7" sqref="A7:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -16072,7 +16068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -16092,7 +16088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -16126,14 +16122,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -16144,7 +16140,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -16155,7 +16151,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -16184,24 +16180,24 @@
       <selection pane="bottomLeft" activeCell="U106" sqref="U106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="42" width="6" customWidth="1"/>
@@ -16209,7 +16205,7 @@
     <col min="44" max="44" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -16286,7 +16282,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -16350,7 +16346,7 @@
         <v>2639.7222222222222</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -16411,7 +16407,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -16475,7 +16471,7 @@
         <v>2538.1944444444443</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -16521,7 +16517,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -16568,7 +16564,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -16622,7 +16618,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -16686,7 +16682,7 @@
         <v>3553.4722222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -16740,7 +16736,7 @@
       </c>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -16807,7 +16803,7 @@
         <v>3553.4722222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -16874,7 +16870,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -16923,7 +16919,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -16987,7 +16983,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -17048,7 +17044,7 @@
         <v>4974.8611111111113</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -17115,7 +17111,7 @@
         <v>2538.1944444444443</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -17180,7 +17176,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -17247,7 +17243,7 @@
         <v>3702.7777777777778</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -17312,7 +17308,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -17379,7 +17375,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -17447,7 +17443,7 @@
         <v>3702.7777777777778</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -17504,7 +17500,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -17555,7 +17551,7 @@
         <v>3702.7777777777778</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -17606,7 +17602,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -17660,7 +17656,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -17728,7 +17724,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -17790,7 +17786,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -17844,7 +17840,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -17901,7 +17897,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -17965,7 +17961,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -18029,7 +18025,7 @@
         <v>4517.9861111111113</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -18081,7 +18077,7 @@
         <v>5584.0277777777774</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -18148,7 +18144,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -18200,7 +18196,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -18249,7 +18245,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -18298,7 +18294,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -18362,7 +18358,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -18417,7 +18413,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -18481,7 +18477,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -18536,7 +18532,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -18597,7 +18593,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -18658,7 +18654,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -18719,7 +18715,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -18780,7 +18776,7 @@
         <v>2741.25</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -18837,7 +18833,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -18879,7 +18875,7 @@
         <v>3105.5555555555557</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -18921,7 +18917,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -18963,7 +18959,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -19024,7 +19020,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -19088,7 +19084,7 @@
         <v>4873.333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -19130,7 +19126,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -19185,7 +19181,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -19227,7 +19223,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -19282,7 +19278,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -19337,7 +19333,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -19398,7 +19394,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -19453,7 +19449,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -19508,7 +19504,7 @@
         <v>4897.2222222222217</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -19558,7 +19554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -19608,7 +19604,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -19658,7 +19654,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -19708,7 +19704,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -19751,7 +19747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -19815,7 +19811,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -19879,7 +19875,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -19943,7 +19939,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>42</v>
       </c>
@@ -20007,7 +20003,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -20071,7 +20067,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -20135,7 +20131,7 @@
         <v>2030.5555555555554</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -20178,7 +20174,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -20221,7 +20217,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -20264,7 +20260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>261</v>
       </c>
@@ -20307,7 +20303,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -20364,7 +20360,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>261</v>
       </c>
@@ -20420,7 +20416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>261</v>
       </c>
@@ -20473,7 +20469,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>258</v>
       </c>
@@ -20539,7 +20535,7 @@
         <v>1266.6666666666667</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -20590,7 +20586,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>262</v>
       </c>
@@ -20640,7 +20636,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -20696,7 +20692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>262</v>
       </c>
@@ -20752,7 +20748,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -20808,7 +20804,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>262</v>
       </c>
@@ -20870,7 +20866,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -20932,7 +20928,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>262</v>
       </c>
@@ -20994,7 +20990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -21056,7 +21052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -21118,7 +21114,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -21180,7 +21176,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>262</v>
       </c>
@@ -21242,7 +21238,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -21295,7 +21291,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -21351,7 +21347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>262</v>
       </c>
@@ -21404,7 +21400,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>262</v>
       </c>
@@ -21457,7 +21453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -21510,7 +21506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>262</v>
       </c>
@@ -21566,7 +21562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -21619,7 +21615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -21666,7 +21662,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -21713,7 +21709,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -21766,7 +21762,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>262</v>
       </c>
@@ -21819,7 +21815,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>262</v>
       </c>
@@ -21866,7 +21862,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>262</v>
       </c>
@@ -21919,7 +21915,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -21972,7 +21968,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>262</v>
       </c>
@@ -22025,7 +22021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>262</v>
       </c>
@@ -22078,7 +22074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>262</v>
       </c>
@@ -22134,7 +22130,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>262</v>
       </c>
@@ -22187,7 +22183,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>262</v>
       </c>
@@ -22242,7 +22238,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>262</v>
       </c>
@@ -22305,7 +22301,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>262</v>
       </c>
@@ -22368,7 +22364,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>262</v>
       </c>
@@ -22422,7 +22418,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>262</v>
       </c>
@@ -22476,7 +22472,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -22529,7 +22525,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>262</v>
       </c>
@@ -22582,7 +22578,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -22629,7 +22625,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>262</v>
       </c>
@@ -22676,7 +22672,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -22730,7 +22726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -22787,7 +22783,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>262</v>
       </c>
@@ -22847,7 +22843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>262</v>
       </c>
@@ -22903,7 +22899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>262</v>
       </c>
@@ -22959,7 +22955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>262</v>
       </c>
@@ -23015,7 +23011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>262</v>
       </c>
@@ -23065,7 +23061,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -23118,7 +23114,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>262</v>
       </c>
@@ -23181,7 +23177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>262</v>
       </c>
@@ -23238,7 +23234,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>262</v>
       </c>
@@ -23301,7 +23297,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>262</v>
       </c>
@@ -23358,7 +23354,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -23420,7 +23416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>262</v>
       </c>
@@ -23477,7 +23473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>262</v>
       </c>
@@ -23537,7 +23533,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>262</v>
       </c>
@@ -23590,7 +23586,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -23653,7 +23649,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -23716,7 +23712,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>262</v>
       </c>
@@ -23776,7 +23772,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>262</v>
       </c>
@@ -23836,7 +23832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>262</v>
       </c>
@@ -23902,7 +23898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>262</v>
       </c>
@@ -23958,7 +23954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -24014,7 +24010,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>262</v>
       </c>
@@ -24070,7 +24066,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>262</v>
       </c>
@@ -24120,7 +24116,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>262</v>
       </c>
@@ -24176,7 +24172,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>262</v>
       </c>
@@ -24232,7 +24228,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>262</v>
       </c>
@@ -24288,7 +24284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>262</v>
       </c>
@@ -24344,7 +24340,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>262</v>
       </c>
@@ -24400,7 +24396,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>262</v>
       </c>
@@ -24460,7 +24456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>262</v>
       </c>
@@ -24517,7 +24513,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>262</v>
       </c>
@@ -24577,7 +24573,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>262</v>
       </c>
@@ -24643,7 +24639,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>262</v>
       </c>
@@ -24709,7 +24705,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -24775,7 +24771,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>262</v>
       </c>
@@ -24841,7 +24837,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>262</v>
       </c>
@@ -24898,7 +24894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>262</v>
       </c>
@@ -24955,7 +24951,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>262</v>
       </c>
@@ -25018,7 +25014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>262</v>
       </c>
@@ -25081,7 +25077,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>262</v>
       </c>
@@ -25144,7 +25140,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -25207,7 +25203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>262</v>
       </c>
@@ -25267,7 +25263,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>262</v>
       </c>
@@ -25324,7 +25320,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>262</v>
       </c>
@@ -25374,7 +25370,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>262</v>
       </c>
@@ -25437,7 +25433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>262</v>
       </c>
@@ -25497,7 +25493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -25557,7 +25553,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -25617,7 +25613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -25674,7 +25670,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>262</v>
       </c>
@@ -25731,7 +25727,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>262</v>
       </c>
@@ -25784,7 +25780,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>262</v>
       </c>
@@ -25844,7 +25840,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>262</v>
       </c>
@@ -25904,7 +25900,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>262</v>
       </c>
@@ -25964,7 +25960,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>262</v>
       </c>
@@ -26017,7 +26013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>262</v>
       </c>
@@ -26064,7 +26060,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>262</v>
       </c>
@@ -26117,7 +26113,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>262</v>
       </c>
@@ -26164,7 +26160,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>262</v>
       </c>
@@ -26221,7 +26217,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>262</v>
       </c>
@@ -26278,7 +26274,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>262</v>
       </c>
@@ -26341,7 +26337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>262</v>
       </c>
@@ -26404,7 +26400,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>262</v>
       </c>
@@ -26467,7 +26463,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -26529,7 +26525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>262</v>
       </c>
@@ -26592,7 +26588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>262</v>
       </c>
@@ -26645,7 +26641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>262</v>
       </c>
@@ -26701,7 +26697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>262</v>
       </c>
@@ -26754,7 +26750,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>262</v>
       </c>
@@ -26806,7 +26802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>262</v>
       </c>
@@ -26858,7 +26854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>262</v>
       </c>
@@ -26908,7 +26904,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>262</v>
       </c>
@@ -26955,7 +26951,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>262</v>
       </c>
@@ -27002,7 +26998,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>262</v>
       </c>
@@ -27055,7 +27051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>262</v>
       </c>
@@ -27108,7 +27104,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>262</v>
       </c>
@@ -27170,7 +27166,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>262</v>
       </c>
@@ -27232,7 +27228,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>262</v>
       </c>
@@ -27294,7 +27290,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>262</v>
       </c>
@@ -27356,7 +27352,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -27406,7 +27402,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -27447,7 +27443,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -27499,7 +27495,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -27572,13 +27568,13 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>244</v>
       </c>
@@ -27586,7 +27582,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>177</v>
       </c>
@@ -27594,7 +27590,7 @@
         <v>310.58333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>269</v>
       </c>
@@ -27602,7 +27598,7 @@
         <v>171.69565217391303</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>176</v>
       </c>
@@ -27610,13 +27606,13 @@
         <v>156.51612903225808</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>336</v>
       </c>
       <c r="B5" s="22"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>245</v>
       </c>
@@ -27624,7 +27620,7 @@
         <v>189.81818181818181</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19">
         <f>310/26</f>
         <v>11.923076923076923</v>
@@ -27638,7 +27634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="H20">
         <f>H19*26</f>
         <v>156</v>
@@ -27658,25 +27654,25 @@
       <selection activeCell="A2" sqref="A2:O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -27732,7 +27728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -27783,7 +27779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -27825,7 +27821,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -27870,7 +27866,7 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -27906,7 +27902,7 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -27941,7 +27937,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -27979,7 +27975,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -28024,7 +28020,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -28062,7 +28058,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -28110,7 +28106,7 @@
         <v>297.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -28158,7 +28154,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -28197,7 +28193,7 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -28242,7 +28238,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -28284,7 +28280,7 @@
         <v>416.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -28332,7 +28328,7 @@
         <v>212.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -28383,7 +28379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -28436,7 +28432,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -28487,7 +28483,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -28540,7 +28536,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -28593,7 +28589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -28639,7 +28635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -28679,7 +28675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -28719,7 +28715,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -28762,7 +28758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -28815,7 +28811,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -28866,7 +28862,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -28909,7 +28905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -28954,7 +28950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -29004,7 +29000,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -29054,7 +29050,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -29095,7 +29091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -29148,7 +29144,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -29189,7 +29185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -29227,7 +29223,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -29265,7 +29261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -29315,7 +29311,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -29359,7 +29355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -29409,7 +29405,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -29453,7 +29449,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -29498,7 +29494,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -29543,7 +29539,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -29588,7 +29584,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -29633,7 +29629,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -29680,7 +29676,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -29715,7 +29711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -29750,7 +29746,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -29785,7 +29781,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -29835,7 +29831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -29885,7 +29881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -29920,7 +29916,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -29964,7 +29960,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -29999,7 +29995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -30043,7 +30039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -30087,7 +30083,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -30137,7 +30133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -30181,7 +30177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -30225,7 +30221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -30261,7 +30257,7 @@
       </c>
       <c r="O58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -30297,7 +30293,7 @@
       </c>
       <c r="O59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -30333,7 +30329,7 @@
       </c>
       <c r="O60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -30369,7 +30365,7 @@
       </c>
       <c r="O61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -30402,7 +30398,7 @@
       </c>
       <c r="O62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -30447,7 +30443,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -30492,7 +30488,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -30537,7 +30533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -30582,7 +30578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -30627,7 +30623,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -30672,7 +30668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H73" s="12"/>
     </row>
   </sheetData>
@@ -30690,9 +30686,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -30757,7 +30753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -30814,7 +30810,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -30855,7 +30851,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N4">
         <v>8.7999999999999995E-2</v>
       </c>
@@ -30863,7 +30859,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N5">
         <v>9.4E-2</v>
       </c>
@@ -30884,9 +30880,9 @@
       <selection activeCell="A2" sqref="A2:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -30942,7 +30938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -30977,7 +30973,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -31012,7 +31008,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -31047,7 +31043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -31095,14 +31091,14 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -31170,7 +31166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -31229,7 +31225,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -31288,7 +31284,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -31341,7 +31337,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -31394,7 +31390,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -31447,7 +31443,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -31497,7 +31493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -31550,7 +31546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -31606,7 +31602,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -31668,7 +31664,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -31721,7 +31717,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -31774,7 +31770,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -31836,7 +31832,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -31892,7 +31888,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -31948,7 +31944,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -32001,7 +31997,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -32054,7 +32050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -32116,7 +32112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -32172,7 +32168,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -32228,7 +32224,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -32284,7 +32280,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -32340,7 +32336,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -32393,7 +32389,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -32446,7 +32442,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -32502,7 +32498,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -32555,7 +32551,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -32608,7 +32604,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -32661,7 +32657,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -32708,7 +32704,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -32758,7 +32754,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -32817,7 +32813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -32870,7 +32866,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -32923,7 +32919,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -32999,9 +32995,9 @@
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -33075,7 +33071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -33128,7 +33124,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -33190,30 +33186,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -33221,7 +33215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>233</v>
       </c>
@@ -33229,7 +33223,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F4" s="6" t="s">
         <v>225</v>
       </c>
@@ -33252,7 +33246,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>47</v>
       </c>
@@ -33279,7 +33273,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
@@ -33308,7 +33302,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -33339,7 +33333,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -33370,7 +33364,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>19</v>
       </c>
@@ -33401,7 +33395,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>20</v>
       </c>
@@ -33432,7 +33426,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>21</v>
       </c>
@@ -33463,7 +33457,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -33494,7 +33488,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>14</v>
       </c>
@@ -33528,7 +33522,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>23</v>
       </c>
@@ -33559,7 +33553,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>24</v>
       </c>
@@ -33590,7 +33584,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -33621,7 +33615,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -33656,7 +33650,7 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>26</v>
       </c>
@@ -33687,7 +33681,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>15</v>
       </c>
@@ -33718,7 +33712,7 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>232</v>
       </c>
@@ -33747,7 +33741,7 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>30</v>
       </c>
@@ -33775,7 +33769,7 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -33784,7 +33778,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>31</v>
       </c>
@@ -33818,7 +33812,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>32</v>
       </c>
@@ -33852,7 +33846,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>33</v>
       </c>
@@ -33886,7 +33880,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>35</v>
       </c>
@@ -33902,7 +33896,7 @@
       </c>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>36</v>
       </c>
@@ -33918,7 +33912,7 @@
       </c>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>37</v>
       </c>
@@ -33934,7 +33928,7 @@
       </c>
       <c r="M28" s="8"/>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>38</v>
       </c>
@@ -33950,7 +33944,7 @@
       </c>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>39</v>
       </c>
@@ -33966,7 +33960,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>40</v>
       </c>
